--- a/docentes/González Nuñez Veronica - Estadisticos 2020.xlsx
+++ b/docentes/González Nuñez Veronica - Estadisticos 2020.xlsx
@@ -486,19 +486,19 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2">
-        <v>92.5</v>
+        <v>95</v>
       </c>
       <c r="H2">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -564,10 +564,10 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -576,7 +576,7 @@
         <v>78.95</v>
       </c>
       <c r="H5">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -590,19 +590,19 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>76.92</v>
+        <v>82.05</v>
       </c>
       <c r="H6">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -616,10 +616,10 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>27</v>
@@ -628,7 +628,7 @@
         <v>79.41</v>
       </c>
       <c r="H7">
-        <v>7.1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -684,16 +684,19 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>62.5</v>
+      </c>
+      <c r="H2">
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -707,16 +710,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>17.24</v>
+      </c>
+      <c r="H3">
+        <v>5.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -730,16 +736,19 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>69.7</v>
+      </c>
+      <c r="H4">
+        <v>7.7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -753,16 +762,19 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>47.37</v>
+      </c>
+      <c r="H5">
+        <v>7.7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -776,16 +788,19 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>56.41</v>
+      </c>
+      <c r="H6">
+        <v>7.8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -799,16 +814,19 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>61.76</v>
+      </c>
+      <c r="H7">
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
@@ -864,19 +882,19 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2">
-        <v>92.5</v>
+        <v>95</v>
       </c>
       <c r="H2">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -902,7 +920,7 @@
         <v>48.28</v>
       </c>
       <c r="H3">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -928,7 +946,7 @@
         <v>96.97</v>
       </c>
       <c r="H4">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -942,19 +960,19 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>78.95</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="H5">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -968,19 +986,19 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>76.92</v>
+        <v>82.05</v>
       </c>
       <c r="H6">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -994,10 +1012,10 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>27</v>
@@ -1006,7 +1024,7 @@
         <v>79.41</v>
       </c>
       <c r="H7">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/González Nuñez Veronica - Estadisticos 2020.xlsx
+++ b/docentes/González Nuñez Veronica - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>Mat</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>ABRAHAM</t>
   </si>
 </sst>
 </file>
@@ -512,16 +521,16 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>48.28</v>
+        <v>55.17</v>
       </c>
       <c r="H3">
         <v>6.5</v>
@@ -616,16 +625,16 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>79.41</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -684,19 +693,19 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>62.5</v>
+        <v>72.5</v>
       </c>
       <c r="H2">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -710,19 +719,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>17.24</v>
+        <v>37.93</v>
       </c>
       <c r="H3">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -736,16 +745,16 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>69.7</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="H4">
         <v>7.7</v>
@@ -762,19 +771,19 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>47.37</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -788,16 +797,16 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>56.41</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H6">
         <v>7.8</v>
@@ -814,19 +823,19 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>70.59</v>
+      </c>
+      <c r="H7">
         <v>7</v>
-      </c>
-      <c r="F7">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>61.76</v>
-      </c>
-      <c r="H7">
-        <v>7.2</v>
       </c>
     </row>
   </sheetData>
@@ -908,19 +917,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>48.28</v>
+        <v>55.17</v>
       </c>
       <c r="H3">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1012,16 +1021,16 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>79.41</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="H7">
         <v>7.4</v>
@@ -1034,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1067,6 +1076,29 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920441</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/González Nuñez Veronica - Estadisticos 2020.xlsx
+++ b/docentes/González Nuñez Veronica - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
   <si>
     <t>Mat</t>
   </si>
@@ -88,10 +88,28 @@
     <t>GARCIA</t>
   </si>
   <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>ESPINOSA</t>
+  </si>
+  <si>
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>LUENGAS</t>
+  </si>
+  <si>
+    <t>TZOPITL</t>
+  </si>
+  <si>
     <t>ABRAHAM</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>YASIEL</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1061,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1084,10 +1102,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1097,6 +1115,52 @@
       </c>
       <c r="G2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920414</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920053</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/González Nuñez Veronica - Estadisticos 2020.xlsx
+++ b/docentes/González Nuñez Veronica - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>Mat</t>
   </si>
@@ -88,28 +88,10 @@
     <t>GARCIA</t>
   </si>
   <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>ESPINOSA</t>
-  </si>
-  <si>
     <t>ANTONIO</t>
   </si>
   <si>
-    <t>LUENGAS</t>
-  </si>
-  <si>
-    <t>TZOPITL</t>
-  </si>
-  <si>
     <t>ABRAHAM</t>
-  </si>
-  <si>
-    <t>ELIZABETH</t>
-  </si>
-  <si>
-    <t>YASIEL</t>
   </si>
 </sst>
 </file>
@@ -539,19 +521,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>55.17</v>
+        <v>58.62</v>
       </c>
       <c r="H3">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -737,19 +719,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>37.93</v>
+        <v>44.83</v>
       </c>
       <c r="H3">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -841,16 +823,16 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>70.59</v>
+        <v>73.53</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -935,16 +917,16 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>55.17</v>
+        <v>58.62</v>
       </c>
       <c r="H3">
         <v>6.6</v>
@@ -1061,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1102,10 +1084,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1115,52 +1097,6 @@
       </c>
       <c r="G2">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>19330051920414</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>19330051920053</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/González Nuñez Veronica - Estadisticos 2020.xlsx
+++ b/docentes/González Nuñez Veronica - Estadisticos 2020.xlsx
@@ -719,16 +719,16 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>44.83</v>
+        <v>48.28</v>
       </c>
       <c r="H3">
         <v>6.4</v>
@@ -797,19 +797,19 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>64.09999999999999</v>
+        <v>69.23</v>
       </c>
       <c r="H6">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1007,7 +1007,7 @@
         <v>82.05</v>
       </c>
       <c r="H6">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
